--- a/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
+++ b/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001039</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实先进制造股票</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>007343</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>嘉实科技创新混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>290005</t>
+          <t>001039</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信优势增长混合</t>
+          <t>嘉实先进制造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.94</t>
+          <t>14.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001970</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合A</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>290005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>泰信优势增长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007343</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实科技创新混合</t>
+          <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +868,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,25 +898,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,26 +936,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001039</t>
+          <t>007343</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实先进制造股票</t>
+          <t>嘉实科技创新混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>290005</t>
+          <t>001039</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信优势增长混合</t>
+          <t>嘉实先进制造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77.78</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1012,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>001753</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>红土创新新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1050,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007343</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实科技创新混合</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1088,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001753</t>
+          <t>002419</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红土创新新兴产业灵活配置混合</t>
+          <t>汇添富盈安灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001970</t>
+          <t>003053</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合A</t>
+          <t>嘉实文体娱乐股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -986,25 +1164,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>92.64</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>9.60</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002003</t>
+          <t>003054</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合A</t>
+          <t>嘉实文体娱乐股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>72.58</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1042,25 +1240,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002004</t>
+          <t>002003</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合C</t>
+          <t>工银瑞信新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>72.58</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.38</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002419</t>
+          <t>002004</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富盈安灵活配置混合</t>
+          <t>工银瑞信新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003053</t>
+          <t>290005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票A</t>
+          <t>泰信优势增长混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1354,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003054</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
+++ b/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -1378,6 +1378,442 @@
       </c>
       <c r="H14" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1092</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
+++ b/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1819,4 +1820,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3225</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
+++ b/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2598,4 +2599,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
+++ b/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2607,7 +2608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2618,17 +2619,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2638,14 +2659,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.82</v>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0902</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2654,14 +2697,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.69</v>
       </c>
     </row>
     <row r="4">
@@ -2670,14 +2735,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.76</v>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2686,13 +2773,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
+++ b/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3006,7 +3007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3017,17 +3018,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3037,14 +3058,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.84</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -3053,14 +3148,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>5.82</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="4">
@@ -3069,14 +3164,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>3.69</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="5">
@@ -3085,14 +3180,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.76</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="6">
@@ -3101,13 +3196,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
+++ b/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,393 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0235</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007343</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实科技创新混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5693</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001039</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实先进制造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5692</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1559</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0605</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004211</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>290005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰信优势增长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -852,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -903,485 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>85.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8884</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007343</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实科技创新混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6538</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001039</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实先进制造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6529</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001753</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1744</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1103</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002419</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0745</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003053</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实文体娱乐股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0737</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0394</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003054</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实文体娱乐股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002003</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002004</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>72.58</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>290005</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰信优势增长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>77.78</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1416,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1446,36 +733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000970</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红睿元三年定期开放灵活配置混合</t>
+          <t>易方达价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>49.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.74</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4895</t>
+          <t>1.0902</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1484,36 +771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007343</t>
+          <t>003053</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实科技创新混合</t>
+          <t>嘉实文体娱乐股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.60</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1092</t>
+          <t>0.3546</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1522,36 +809,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001039</t>
+          <t>007133</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实先进制造股票</t>
+          <t>嘉实长青竞争优势股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5692</t>
+          <t>0.2793</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1560,32 +847,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001753</t>
+          <t>519929</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>红土创新新兴产业灵活配置混合</t>
+          <t>长信电子信息行业量化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1824</t>
+          <t>0.0569</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1598,36 +885,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003053</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票A</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1252</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1636,32 +923,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000082</t>
+          <t>003054</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实研究阿尔法股票</t>
+          <t>嘉实文体娱乐股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0907</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1674,36 +961,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003054</t>
+          <t>003333</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票C</t>
+          <t>泰信智选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0433</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1712,36 +999,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002003</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合A</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82.38</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1750,74 +1037,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002004</t>
+          <t>007134</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合C</t>
+          <t>嘉实长青竞争优势股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.38</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +1858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2630,7 +1879,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2660,36 +1909,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>000970</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达价值成长混合</t>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.78</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>74.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0902</t>
+          <t>1.4895</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2698,36 +1947,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003053</t>
+          <t>007343</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票A</t>
+          <t>嘉实科技创新混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>15.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>93.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3546</t>
+          <t>1.1092</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2736,36 +1985,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007133</t>
+          <t>001039</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票A</t>
+          <t>嘉实先进制造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2793</t>
+          <t>0.5692</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2774,32 +2023,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519929</t>
+          <t>001753</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
+          <t>红土创新新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0569</t>
+          <t>0.1824</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2812,36 +2061,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>003053</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>嘉实文体娱乐股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.1252</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2850,32 +2099,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003054</t>
+          <t>000082</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实文体娱乐股票C</t>
+          <t>嘉实研究阿尔法股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>83.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0160</t>
+          <t>0.0907</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2888,36 +2137,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003333</t>
+          <t>003054</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信智选成长灵活配置混合</t>
+          <t>嘉实文体娱乐股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2926,36 +2175,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>002003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>工银瑞信新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>82.38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2964,36 +2213,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007134</t>
+          <t>002004</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票C</t>
+          <t>工银瑞信新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>82.38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3028,7 +2315,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3058,36 +2345,485 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>004044</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3101,128 +2837,392 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.44</v>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
+++ b/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.84</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>5.82</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>3.69</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.76</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.44</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -676,7 +825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1852,7 +2001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2288,7 +2437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2831,7 +2980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
+++ b/数据整理/stocks/A股/科创板/688368-晶丰明源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.84</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>5.82</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>3.69</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>2.76</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.44</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +1012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2001,7 +2188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2980,7 +3167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
